--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H2">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.960519231738422</v>
+        <v>1.548851666666667</v>
       </c>
       <c r="N2">
-        <v>0.960519231738422</v>
+        <v>4.646555</v>
       </c>
       <c r="O2">
-        <v>0.03760046974191354</v>
+        <v>0.05076024044458387</v>
       </c>
       <c r="P2">
-        <v>0.03760046974191354</v>
+        <v>0.05076024044458388</v>
       </c>
       <c r="Q2">
-        <v>10.80789517705164</v>
+        <v>30.69099347266889</v>
       </c>
       <c r="R2">
-        <v>10.80789517705164</v>
+        <v>276.21894125402</v>
       </c>
       <c r="S2">
-        <v>0.0006179851298529456</v>
+        <v>0.001243068321800538</v>
       </c>
       <c r="T2">
-        <v>0.0006179851298529456</v>
+        <v>0.001243068321800538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H3">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.08374681500412</v>
+        <v>2.107305</v>
       </c>
       <c r="N3">
-        <v>2.08374681500412</v>
+        <v>6.321915</v>
       </c>
       <c r="O3">
-        <v>0.08157031788480433</v>
+        <v>0.06906233230215103</v>
       </c>
       <c r="P3">
-        <v>0.08157031788480433</v>
+        <v>0.06906233230215104</v>
       </c>
       <c r="Q3">
-        <v>23.44660721818099</v>
+        <v>41.75692572233999</v>
       </c>
       <c r="R3">
-        <v>23.44660721818099</v>
+        <v>375.81233150106</v>
       </c>
       <c r="S3">
-        <v>0.001340654620439363</v>
+        <v>0.001691268535423695</v>
       </c>
       <c r="T3">
-        <v>0.001340654620439363</v>
+        <v>0.001691268535423695</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H4">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.48943108653114</v>
+        <v>2.501254333333333</v>
       </c>
       <c r="N4">
-        <v>1.48943108653114</v>
+        <v>7.503762999999999</v>
       </c>
       <c r="O4">
-        <v>0.05830524434208403</v>
+        <v>0.08197316379966922</v>
       </c>
       <c r="P4">
-        <v>0.05830524434208403</v>
+        <v>0.08197316379966922</v>
       </c>
       <c r="Q4">
-        <v>16.75928448359747</v>
+        <v>49.56315835139245</v>
       </c>
       <c r="R4">
-        <v>16.75928448359747</v>
+        <v>446.0684251625319</v>
       </c>
       <c r="S4">
-        <v>0.0009582798896707829</v>
+        <v>0.002007442089806097</v>
       </c>
       <c r="T4">
-        <v>0.0009582798896707829</v>
+        <v>0.002007442089806097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H5">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>19.352028662314</v>
+        <v>1.199448333333333</v>
       </c>
       <c r="N5">
-        <v>19.352028662314</v>
+        <v>3.598345</v>
       </c>
       <c r="O5">
-        <v>0.7575541895658167</v>
+        <v>0.03930930708935247</v>
       </c>
       <c r="P5">
-        <v>0.7575541895658167</v>
+        <v>0.03930930708935247</v>
       </c>
       <c r="Q5">
-        <v>217.7517017197503</v>
+        <v>23.76745414773112</v>
       </c>
       <c r="R5">
-        <v>217.7517017197503</v>
+        <v>213.90708732958</v>
       </c>
       <c r="S5">
-        <v>0.01245083445560297</v>
+        <v>0.0009626462358477102</v>
       </c>
       <c r="T5">
-        <v>0.01245083445560297</v>
+        <v>0.00096264623584771</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H6">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I6">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J6">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.65967931055448</v>
+        <v>20.91239866666667</v>
       </c>
       <c r="N6">
-        <v>1.65967931055448</v>
+        <v>62.737196</v>
       </c>
       <c r="O6">
-        <v>0.06496977846538143</v>
+        <v>0.6853583254215189</v>
       </c>
       <c r="P6">
-        <v>0.06496977846538143</v>
+        <v>0.685358325421519</v>
       </c>
       <c r="Q6">
-        <v>18.67494103530778</v>
+        <v>414.3858994307716</v>
       </c>
       <c r="R6">
-        <v>18.67494103530778</v>
+        <v>3729.473094876944</v>
       </c>
       <c r="S6">
-        <v>0.001067815302761761</v>
+        <v>0.01678375074570115</v>
       </c>
       <c r="T6">
-        <v>0.001067815302761761</v>
+        <v>0.01678375074570115</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>517.977351898144</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H7">
-        <v>517.977351898144</v>
+        <v>59.445964</v>
       </c>
       <c r="I7">
-        <v>0.7565897727891929</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J7">
-        <v>0.7565897727891929</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.960519231738422</v>
+        <v>2.243829666666667</v>
       </c>
       <c r="N7">
-        <v>0.960519231738422</v>
+        <v>6.731489</v>
       </c>
       <c r="O7">
-        <v>0.03760046974191354</v>
+        <v>0.07353663094272454</v>
       </c>
       <c r="P7">
-        <v>0.03760046974191354</v>
+        <v>0.07353663094272454</v>
       </c>
       <c r="Q7">
-        <v>497.5272081031075</v>
+        <v>44.46220586226622</v>
       </c>
       <c r="R7">
-        <v>497.5272081031075</v>
+        <v>400.1598527603959</v>
       </c>
       <c r="S7">
-        <v>0.02844813085880129</v>
+        <v>0.001800839704781022</v>
       </c>
       <c r="T7">
-        <v>0.02844813085880129</v>
+        <v>0.001800839704781022</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H8">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08374681500412</v>
+        <v>1.548851666666667</v>
       </c>
       <c r="N8">
-        <v>2.08374681500412</v>
+        <v>4.646555</v>
       </c>
       <c r="O8">
-        <v>0.08157031788480433</v>
+        <v>0.05076024044458387</v>
       </c>
       <c r="P8">
-        <v>0.08157031788480433</v>
+        <v>0.05076024044458388</v>
       </c>
       <c r="Q8">
-        <v>1079.333657262026</v>
+        <v>821.3553423663672</v>
       </c>
       <c r="R8">
-        <v>1079.333657262026</v>
+        <v>7392.198081297305</v>
       </c>
       <c r="S8">
-        <v>0.06171526827480635</v>
+        <v>0.0332671149256375</v>
       </c>
       <c r="T8">
-        <v>0.06171526827480635</v>
+        <v>0.0332671149256375</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H9">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.48943108653114</v>
+        <v>2.107305</v>
       </c>
       <c r="N9">
-        <v>1.48943108653114</v>
+        <v>6.321915</v>
       </c>
       <c r="O9">
-        <v>0.05830524434208403</v>
+        <v>0.06906233230215103</v>
       </c>
       <c r="P9">
-        <v>0.05830524434208403</v>
+        <v>0.06906233230215104</v>
       </c>
       <c r="Q9">
-        <v>771.4915700361752</v>
+        <v>1117.502893915185</v>
       </c>
       <c r="R9">
-        <v>771.4915700361752</v>
+        <v>10057.52604523666</v>
       </c>
       <c r="S9">
-        <v>0.04411315156919574</v>
+        <v>0.04526189248919071</v>
       </c>
       <c r="T9">
-        <v>0.04411315156919574</v>
+        <v>0.04526189248919072</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H10">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J10">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.352028662314</v>
+        <v>2.501254333333333</v>
       </c>
       <c r="N10">
-        <v>19.352028662314</v>
+        <v>7.503762999999999</v>
       </c>
       <c r="O10">
-        <v>0.7575541895658167</v>
+        <v>0.08197316379966922</v>
       </c>
       <c r="P10">
-        <v>0.7575541895658167</v>
+        <v>0.08197316379966922</v>
       </c>
       <c r="Q10">
-        <v>10023.91256036239</v>
+        <v>1326.414048235968</v>
       </c>
       <c r="R10">
-        <v>10023.91256036239</v>
+        <v>11937.72643412371</v>
       </c>
       <c r="S10">
-        <v>0.5731577521591024</v>
+        <v>0.0537233598000554</v>
       </c>
       <c r="T10">
-        <v>0.5731577521591024</v>
+        <v>0.0537233598000554</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H11">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J11">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.65967931055448</v>
+        <v>1.199448333333333</v>
       </c>
       <c r="N11">
-        <v>1.65967931055448</v>
+        <v>3.598345</v>
       </c>
       <c r="O11">
-        <v>0.06496977846538143</v>
+        <v>0.03930930708935247</v>
       </c>
       <c r="P11">
-        <v>0.06496977846538143</v>
+        <v>0.03930930708935247</v>
       </c>
       <c r="Q11">
-        <v>859.6762942811469</v>
+        <v>636.0669118147327</v>
       </c>
       <c r="R11">
-        <v>859.6762942811469</v>
+        <v>5724.602206332595</v>
       </c>
       <c r="S11">
-        <v>0.04915546992728714</v>
+        <v>0.02576243187847622</v>
       </c>
       <c r="T11">
-        <v>0.04915546992728714</v>
+        <v>0.02576243187847622</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.8465022971811</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H12">
-        <v>34.8465022971811</v>
+        <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J12">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.960519231738422</v>
+        <v>20.91239866666667</v>
       </c>
       <c r="N12">
-        <v>0.960519231738422</v>
+        <v>62.737196</v>
       </c>
       <c r="O12">
-        <v>0.03760046974191354</v>
+        <v>0.6853583254215189</v>
       </c>
       <c r="P12">
-        <v>0.03760046974191354</v>
+        <v>0.685358325421519</v>
       </c>
       <c r="Q12">
-        <v>33.47073561525954</v>
+        <v>11089.83560932473</v>
       </c>
       <c r="R12">
-        <v>33.47073561525954</v>
+        <v>99808.52048392261</v>
       </c>
       <c r="S12">
-        <v>0.001913824713935875</v>
+        <v>0.4491683643999146</v>
       </c>
       <c r="T12">
-        <v>0.001913824713935875</v>
+        <v>0.4491683643999147</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.8465022971811</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H13">
-        <v>34.8465022971811</v>
+        <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J13">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.08374681500412</v>
+        <v>2.243829666666667</v>
       </c>
       <c r="N13">
-        <v>2.08374681500412</v>
+        <v>6.731489</v>
       </c>
       <c r="O13">
-        <v>0.08157031788480433</v>
+        <v>0.07353663094272454</v>
       </c>
       <c r="P13">
-        <v>0.08157031788480433</v>
+        <v>0.07353663094272454</v>
       </c>
       <c r="Q13">
-        <v>72.61128817578485</v>
+        <v>1189.901863257926</v>
       </c>
       <c r="R13">
-        <v>72.61128817578485</v>
+        <v>10709.11676932134</v>
       </c>
       <c r="S13">
-        <v>0.004151844148838534</v>
+        <v>0.04819424674488188</v>
       </c>
       <c r="T13">
-        <v>0.004151844148838534</v>
+        <v>0.04819424674488188</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H14">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I14">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J14">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.48943108653114</v>
+        <v>1.548851666666667</v>
       </c>
       <c r="N14">
-        <v>1.48943108653114</v>
+        <v>4.646555</v>
       </c>
       <c r="O14">
-        <v>0.05830524434208403</v>
+        <v>0.05076024044458387</v>
       </c>
       <c r="P14">
-        <v>0.05830524434208403</v>
+        <v>0.05076024044458388</v>
       </c>
       <c r="Q14">
-        <v>51.9014637783003</v>
+        <v>176.8094170525744</v>
       </c>
       <c r="R14">
-        <v>51.9014637783003</v>
+        <v>1591.28475347317</v>
       </c>
       <c r="S14">
-        <v>0.002967676157767903</v>
+        <v>0.007161260046202162</v>
       </c>
       <c r="T14">
-        <v>0.002967676157767903</v>
+        <v>0.007161260046202163</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H15">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I15">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J15">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.352028662314</v>
+        <v>2.107305</v>
       </c>
       <c r="N15">
-        <v>19.352028662314</v>
+        <v>6.321915</v>
       </c>
       <c r="O15">
-        <v>0.7575541895658167</v>
+        <v>0.06906233230215103</v>
       </c>
       <c r="P15">
-        <v>0.7575541895658167</v>
+        <v>0.06906233230215104</v>
       </c>
       <c r="Q15">
-        <v>674.3505112364393</v>
+        <v>240.5597492778899</v>
       </c>
       <c r="R15">
-        <v>674.3505112364393</v>
+        <v>2165.03774350101</v>
       </c>
       <c r="S15">
-        <v>0.03855871855027892</v>
+        <v>0.009743321085188087</v>
       </c>
       <c r="T15">
-        <v>0.03855871855027892</v>
+        <v>0.009743321085188088</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H16">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I16">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J16">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.65967931055448</v>
+        <v>2.501254333333333</v>
       </c>
       <c r="N16">
-        <v>1.65967931055448</v>
+        <v>7.503762999999999</v>
       </c>
       <c r="O16">
-        <v>0.06496977846538143</v>
+        <v>0.08197316379966922</v>
       </c>
       <c r="P16">
-        <v>0.06496977846538143</v>
+        <v>0.08197316379966922</v>
       </c>
       <c r="Q16">
-        <v>57.83401890782063</v>
+        <v>285.5311002948802</v>
       </c>
       <c r="R16">
-        <v>57.83401890782063</v>
+        <v>2569.779902653921</v>
       </c>
       <c r="S16">
-        <v>0.003306893997321054</v>
+        <v>0.0115647825470849</v>
       </c>
       <c r="T16">
-        <v>0.003306893997321054</v>
+        <v>0.0115647825470849</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.9659636424671</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H17">
-        <v>41.9659636424671</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I17">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J17">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.960519231738422</v>
+        <v>1.199448333333333</v>
       </c>
       <c r="N17">
-        <v>0.960519231738422</v>
+        <v>3.598345</v>
       </c>
       <c r="O17">
-        <v>0.03760046974191354</v>
+        <v>0.03930930708935247</v>
       </c>
       <c r="P17">
-        <v>0.03760046974191354</v>
+        <v>0.03930930708935247</v>
       </c>
       <c r="Q17">
-        <v>40.30911515702505</v>
+        <v>136.9232220008255</v>
       </c>
       <c r="R17">
-        <v>40.30911515702505</v>
+        <v>1232.30899800743</v>
       </c>
       <c r="S17">
-        <v>0.002304836728752115</v>
+        <v>0.005545761167348997</v>
       </c>
       <c r="T17">
-        <v>0.002304836728752115</v>
+        <v>0.005545761167348997</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>41.9659636424671</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H18">
-        <v>41.9659636424671</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I18">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J18">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.08374681500412</v>
+        <v>20.91239866666667</v>
       </c>
       <c r="N18">
-        <v>2.08374681500412</v>
+        <v>62.737196</v>
       </c>
       <c r="O18">
-        <v>0.08157031788480433</v>
+        <v>0.6853583254215189</v>
       </c>
       <c r="P18">
-        <v>0.08157031788480433</v>
+        <v>0.685358325421519</v>
       </c>
       <c r="Q18">
-        <v>87.44644307856952</v>
+        <v>2387.258313368313</v>
       </c>
       <c r="R18">
-        <v>87.44644307856952</v>
+        <v>21485.32482031482</v>
       </c>
       <c r="S18">
-        <v>0.005000104145701948</v>
+        <v>0.09669042443822447</v>
       </c>
       <c r="T18">
-        <v>0.005000104145701948</v>
+        <v>0.09669042443822448</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>41.9659636424671</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H19">
-        <v>41.9659636424671</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I19">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J19">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.48943108653114</v>
+        <v>2.243829666666667</v>
       </c>
       <c r="N19">
-        <v>1.48943108653114</v>
+        <v>6.731489</v>
       </c>
       <c r="O19">
-        <v>0.05830524434208403</v>
+        <v>0.07353663094272454</v>
       </c>
       <c r="P19">
-        <v>0.05830524434208403</v>
+        <v>0.07353663094272454</v>
       </c>
       <c r="Q19">
-        <v>62.50541082532609</v>
+        <v>256.1447450822851</v>
       </c>
       <c r="R19">
-        <v>62.50541082532609</v>
+        <v>2305.302705740565</v>
       </c>
       <c r="S19">
-        <v>0.003573999728218894</v>
+        <v>0.01037455560671279</v>
       </c>
       <c r="T19">
-        <v>0.003573999728218894</v>
+        <v>0.01037455560671279</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H20">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I20">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J20">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.352028662314</v>
+        <v>1.548851666666667</v>
       </c>
       <c r="N20">
-        <v>19.352028662314</v>
+        <v>4.646555</v>
       </c>
       <c r="O20">
-        <v>0.7575541895658167</v>
+        <v>0.05076024044458387</v>
       </c>
       <c r="P20">
-        <v>0.7575541895658167</v>
+        <v>0.05076024044458388</v>
       </c>
       <c r="Q20">
-        <v>812.1265312506507</v>
+        <v>65.56294887379555</v>
       </c>
       <c r="R20">
-        <v>812.1265312506507</v>
+        <v>590.0665398641601</v>
       </c>
       <c r="S20">
-        <v>0.04643661986448572</v>
+        <v>0.002655476920335623</v>
       </c>
       <c r="T20">
-        <v>0.04643661986448572</v>
+        <v>0.002655476920335624</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H21">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I21">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J21">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.65967931055448</v>
+        <v>2.107305</v>
       </c>
       <c r="N21">
-        <v>1.65967931055448</v>
+        <v>6.321915</v>
       </c>
       <c r="O21">
-        <v>0.06496977846538143</v>
+        <v>0.06906233230215103</v>
       </c>
       <c r="P21">
-        <v>0.06496977846538143</v>
+        <v>0.06906233230215104</v>
       </c>
       <c r="Q21">
-        <v>69.65004160488418</v>
+        <v>89.20229932271998</v>
       </c>
       <c r="R21">
-        <v>69.65004160488418</v>
+        <v>802.82069390448</v>
       </c>
       <c r="S21">
-        <v>0.003982522896488649</v>
+        <v>0.003612934609581416</v>
       </c>
       <c r="T21">
-        <v>0.003982522896488649</v>
+        <v>0.003612934609581417</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>38.8948812832746</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H22">
-        <v>38.8948812832746</v>
+        <v>126.990112</v>
       </c>
       <c r="I22">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J22">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.960519231738422</v>
+        <v>2.501254333333333</v>
       </c>
       <c r="N22">
-        <v>0.960519231738422</v>
+        <v>7.503762999999999</v>
       </c>
       <c r="O22">
-        <v>0.03760046974191354</v>
+        <v>0.08197316379966922</v>
       </c>
       <c r="P22">
-        <v>0.03760046974191354</v>
+        <v>0.08197316379966922</v>
       </c>
       <c r="Q22">
-        <v>37.35928148876805</v>
+        <v>105.8781893101618</v>
       </c>
       <c r="R22">
-        <v>37.35928148876805</v>
+        <v>952.9037037914559</v>
       </c>
       <c r="S22">
-        <v>0.002136168055281534</v>
+        <v>0.004288353298770465</v>
       </c>
       <c r="T22">
-        <v>0.002136168055281534</v>
+        <v>0.004288353298770465</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>38.8948812832746</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H23">
-        <v>38.8948812832746</v>
+        <v>126.990112</v>
       </c>
       <c r="I23">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J23">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>2.08374681500412</v>
+        <v>1.199448333333333</v>
       </c>
       <c r="N23">
-        <v>2.08374681500412</v>
+        <v>3.598345</v>
       </c>
       <c r="O23">
-        <v>0.08157031788480433</v>
+        <v>0.03930930708935247</v>
       </c>
       <c r="P23">
-        <v>0.08157031788480433</v>
+        <v>0.03930930708935247</v>
       </c>
       <c r="Q23">
-        <v>81.0470849939868</v>
+        <v>50.77269272940445</v>
       </c>
       <c r="R23">
-        <v>81.0470849939868</v>
+        <v>456.95423456464</v>
       </c>
       <c r="S23">
-        <v>0.004634194958751897</v>
+        <v>0.002056431506547343</v>
       </c>
       <c r="T23">
-        <v>0.004634194958751897</v>
+        <v>0.002056431506547343</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>38.8948812832746</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H24">
-        <v>38.8948812832746</v>
+        <v>126.990112</v>
       </c>
       <c r="I24">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J24">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.48943108653114</v>
+        <v>20.91239866666667</v>
       </c>
       <c r="N24">
-        <v>1.48943108653114</v>
+        <v>62.737196</v>
       </c>
       <c r="O24">
-        <v>0.05830524434208403</v>
+        <v>0.6853583254215189</v>
       </c>
       <c r="P24">
-        <v>0.05830524434208403</v>
+        <v>0.685358325421519</v>
       </c>
       <c r="Q24">
-        <v>57.93124529024739</v>
+        <v>885.2226162895502</v>
       </c>
       <c r="R24">
-        <v>57.93124529024739</v>
+        <v>7967.003546605953</v>
       </c>
       <c r="S24">
-        <v>0.00331245330906352</v>
+        <v>0.03585391241996971</v>
       </c>
       <c r="T24">
-        <v>0.00331245330906352</v>
+        <v>0.03585391241996972</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>38.8948812832746</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H25">
-        <v>38.8948812832746</v>
+        <v>126.990112</v>
       </c>
       <c r="I25">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J25">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.352028662314</v>
+        <v>2.243829666666667</v>
       </c>
       <c r="N25">
-        <v>19.352028662314</v>
+        <v>6.731489</v>
       </c>
       <c r="O25">
-        <v>0.7575541895658167</v>
+        <v>0.07353663094272454</v>
       </c>
       <c r="P25">
-        <v>0.7575541895658167</v>
+        <v>0.07353663094272454</v>
       </c>
       <c r="Q25">
-        <v>752.6948574112305</v>
+        <v>94.98139355964088</v>
       </c>
       <c r="R25">
-        <v>752.6948574112305</v>
+        <v>854.8325420367679</v>
       </c>
       <c r="S25">
-        <v>0.04303837348317215</v>
+        <v>0.003847003571246466</v>
       </c>
       <c r="T25">
-        <v>0.04303837348317215</v>
+        <v>0.003847003571246466</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H26">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I26">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J26">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.65967931055448</v>
+        <v>1.548851666666667</v>
       </c>
       <c r="N26">
-        <v>1.65967931055448</v>
+        <v>4.646555</v>
       </c>
       <c r="O26">
-        <v>0.06496977846538143</v>
+        <v>0.05076024044458387</v>
       </c>
       <c r="P26">
-        <v>0.06496977846538143</v>
+        <v>0.05076024044458388</v>
       </c>
       <c r="Q26">
-        <v>64.55302975232354</v>
+        <v>71.5888879353539</v>
       </c>
       <c r="R26">
-        <v>64.55302975232354</v>
+        <v>644.2999914181851</v>
       </c>
       <c r="S26">
-        <v>0.003691080623967834</v>
+        <v>0.002899543765652777</v>
       </c>
       <c r="T26">
-        <v>0.003691080623967834</v>
+        <v>0.002899543765652777</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>39.684301501429</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H27">
-        <v>39.684301501429</v>
+        <v>138.661867</v>
       </c>
       <c r="I27">
-        <v>0.05796534645045275</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J27">
-        <v>0.05796534645045275</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.960519231738422</v>
+        <v>2.107305</v>
       </c>
       <c r="N27">
-        <v>0.960519231738422</v>
+        <v>6.321915</v>
       </c>
       <c r="O27">
-        <v>0.03760046974191354</v>
+        <v>0.06906233230215103</v>
       </c>
       <c r="P27">
-        <v>0.03760046974191354</v>
+        <v>0.06906233230215104</v>
       </c>
       <c r="Q27">
-        <v>38.11753479022849</v>
+        <v>97.40094854614499</v>
       </c>
       <c r="R27">
-        <v>38.11753479022849</v>
+        <v>876.608536915305</v>
       </c>
       <c r="S27">
-        <v>0.002179524255289784</v>
+        <v>0.003945002098379717</v>
       </c>
       <c r="T27">
-        <v>0.002179524255289784</v>
+        <v>0.003945002098379718</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>39.684301501429</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H28">
-        <v>39.684301501429</v>
+        <v>138.661867</v>
       </c>
       <c r="I28">
-        <v>0.05796534645045275</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J28">
-        <v>0.05796534645045275</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.08374681500412</v>
+        <v>2.501254333333333</v>
       </c>
       <c r="N28">
-        <v>2.08374681500412</v>
+        <v>7.503762999999999</v>
       </c>
       <c r="O28">
-        <v>0.08157031788480433</v>
+        <v>0.08197316379966922</v>
       </c>
       <c r="P28">
-        <v>0.08157031788480433</v>
+        <v>0.08197316379966922</v>
       </c>
       <c r="Q28">
-        <v>82.69203685926588</v>
+        <v>115.6095319006134</v>
       </c>
       <c r="R28">
-        <v>82.69203685926588</v>
+        <v>1040.485787105521</v>
       </c>
       <c r="S28">
-        <v>0.004728251736266245</v>
+        <v>0.004682499018215856</v>
       </c>
       <c r="T28">
-        <v>0.004728251736266245</v>
+        <v>0.004682499018215856</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,60 +2208,60 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>39.684301501429</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H29">
-        <v>39.684301501429</v>
+        <v>138.661867</v>
       </c>
       <c r="I29">
-        <v>0.05796534645045275</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J29">
-        <v>0.05796534645045275</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>1.48943108653114</v>
+        <v>1.199448333333333</v>
       </c>
       <c r="N29">
-        <v>1.48943108653114</v>
+        <v>3.598345</v>
       </c>
       <c r="O29">
-        <v>0.05830524434208403</v>
+        <v>0.03930930708935247</v>
       </c>
       <c r="P29">
-        <v>0.05830524434208403</v>
+        <v>0.03930930708935247</v>
       </c>
       <c r="Q29">
-        <v>59.10703230350274</v>
+        <v>55.43924842334611</v>
       </c>
       <c r="R29">
-        <v>59.10703230350274</v>
+        <v>498.953235810115</v>
       </c>
       <c r="S29">
-        <v>0.003379683688167201</v>
+        <v>0.002245439645375518</v>
       </c>
       <c r="T29">
-        <v>0.003379683688167201</v>
+        <v>0.002245439645375518</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>39.684301501429</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H30">
-        <v>39.684301501429</v>
+        <v>138.661867</v>
       </c>
       <c r="I30">
-        <v>0.05796534645045275</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J30">
-        <v>0.05796534645045275</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>19.352028662314</v>
+        <v>20.91239866666667</v>
       </c>
       <c r="N30">
-        <v>19.352028662314</v>
+        <v>62.737196</v>
       </c>
       <c r="O30">
-        <v>0.7575541895658167</v>
+        <v>0.6853583254215189</v>
       </c>
       <c r="P30">
-        <v>0.7575541895658167</v>
+        <v>0.685358325421519</v>
       </c>
       <c r="Q30">
-        <v>767.9717400995645</v>
+        <v>966.5840808561036</v>
       </c>
       <c r="R30">
-        <v>767.9717400995645</v>
+        <v>8699.256727704933</v>
       </c>
       <c r="S30">
-        <v>0.04391189105317451</v>
+        <v>0.03914927199534629</v>
       </c>
       <c r="T30">
-        <v>0.04391189105317451</v>
+        <v>0.0391492719953463</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>39.684301501429</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H31">
-        <v>39.684301501429</v>
+        <v>138.661867</v>
       </c>
       <c r="I31">
-        <v>0.05796534645045275</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J31">
-        <v>0.05796534645045275</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.65967931055448</v>
+        <v>2.243829666666667</v>
       </c>
       <c r="N31">
-        <v>1.65967931055448</v>
+        <v>6.731489</v>
       </c>
       <c r="O31">
-        <v>0.06496977846538143</v>
+        <v>0.07353663094272454</v>
       </c>
       <c r="P31">
-        <v>0.06496977846538143</v>
+        <v>0.07353663094272454</v>
       </c>
       <c r="Q31">
-        <v>65.86321415572779</v>
+        <v>103.7112036033292</v>
       </c>
       <c r="R31">
-        <v>65.86321415572779</v>
+        <v>933.400832429963</v>
       </c>
       <c r="S31">
-        <v>0.003765995717554999</v>
+        <v>0.00420058451121535</v>
       </c>
       <c r="T31">
-        <v>0.003765995717554999</v>
+        <v>0.00420058451121535</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>56.330706</v>
+      </c>
+      <c r="H32">
+        <v>168.992118</v>
+      </c>
+      <c r="I32">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J32">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.548851666666667</v>
+      </c>
+      <c r="N32">
+        <v>4.646555</v>
+      </c>
+      <c r="O32">
+        <v>0.05076024044458387</v>
+      </c>
+      <c r="P32">
+        <v>0.05076024044458388</v>
+      </c>
+      <c r="Q32">
+        <v>87.24790787261</v>
+      </c>
+      <c r="R32">
+        <v>785.2311708534901</v>
+      </c>
+      <c r="S32">
+        <v>0.003533776464955273</v>
+      </c>
+      <c r="T32">
+        <v>0.003533776464955275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>56.330706</v>
+      </c>
+      <c r="H33">
+        <v>168.992118</v>
+      </c>
+      <c r="I33">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J33">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.107305</v>
+      </c>
+      <c r="N33">
+        <v>6.321915</v>
+      </c>
+      <c r="O33">
+        <v>0.06906233230215103</v>
+      </c>
+      <c r="P33">
+        <v>0.06906233230215104</v>
+      </c>
+      <c r="Q33">
+        <v>118.70597840733</v>
+      </c>
+      <c r="R33">
+        <v>1068.35380566597</v>
+      </c>
+      <c r="S33">
+        <v>0.004807913484387403</v>
+      </c>
+      <c r="T33">
+        <v>0.004807913484387406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>56.330706</v>
+      </c>
+      <c r="H34">
+        <v>168.992118</v>
+      </c>
+      <c r="I34">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J34">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2.501254333333333</v>
+      </c>
+      <c r="N34">
+        <v>7.503762999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.08197316379966922</v>
+      </c>
+      <c r="P34">
+        <v>0.08197316379966922</v>
+      </c>
+      <c r="Q34">
+        <v>140.897422482226</v>
+      </c>
+      <c r="R34">
+        <v>1268.076802340034</v>
+      </c>
+      <c r="S34">
+        <v>0.005706727045736503</v>
+      </c>
+      <c r="T34">
+        <v>0.005706727045736504</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>56.330706</v>
+      </c>
+      <c r="H35">
+        <v>168.992118</v>
+      </c>
+      <c r="I35">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J35">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>1.199448333333333</v>
+      </c>
+      <c r="N35">
+        <v>3.598345</v>
+      </c>
+      <c r="O35">
+        <v>0.03930930708935247</v>
+      </c>
+      <c r="P35">
+        <v>0.03930930708935247</v>
+      </c>
+      <c r="Q35">
+        <v>67.56577142719</v>
+      </c>
+      <c r="R35">
+        <v>608.09194284471</v>
+      </c>
+      <c r="S35">
+        <v>0.002736596655756681</v>
+      </c>
+      <c r="T35">
+        <v>0.002736596655756682</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>56.330706</v>
+      </c>
+      <c r="H36">
+        <v>168.992118</v>
+      </c>
+      <c r="I36">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J36">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>20.91239866666667</v>
+      </c>
+      <c r="N36">
+        <v>62.737196</v>
+      </c>
+      <c r="O36">
+        <v>0.6853583254215189</v>
+      </c>
+      <c r="P36">
+        <v>0.685358325421519</v>
+      </c>
+      <c r="Q36">
+        <v>1178.010181046792</v>
+      </c>
+      <c r="R36">
+        <v>10602.09162942113</v>
+      </c>
+      <c r="S36">
+        <v>0.04771260142236261</v>
+      </c>
+      <c r="T36">
+        <v>0.04771260142236263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>56.330706</v>
+      </c>
+      <c r="H37">
+        <v>168.992118</v>
+      </c>
+      <c r="I37">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J37">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.243829666666667</v>
+      </c>
+      <c r="N37">
+        <v>6.731489</v>
+      </c>
+      <c r="O37">
+        <v>0.07353663094272454</v>
+      </c>
+      <c r="P37">
+        <v>0.07353663094272454</v>
+      </c>
+      <c r="Q37">
+        <v>126.396509267078</v>
+      </c>
+      <c r="R37">
+        <v>1137.568583403702</v>
+      </c>
+      <c r="S37">
+        <v>0.005119400803887032</v>
+      </c>
+      <c r="T37">
+        <v>0.005119400803887033</v>
       </c>
     </row>
   </sheetData>
